--- a/biology/Biologie cellulaire et moléculaire/Dioxopipérazine/Dioxopipérazine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Dioxopipérazine/Dioxopipérazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dioxopip%C3%A9razine</t>
+          <t>Dioxopipérazine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dioxopipérazines aussi appelées dicétopipérazines sont une famille de composés chimiques, incluant un noyau pipérazine et deux fonctions cétone, généralement en opposition.
 Les dicétopipérazines peuvent être le résultat d'une cyclisation de dipeptides (molécule constituée de deux acides aminés). 
